--- a/Data/g2.5.xlsx
+++ b/Data/g2.5.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Wagner Nobrega\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{00C3CD7B-9F51-43E1-B57C-E50DFD9709AC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5C32CC74-6D65-4B64-B5FE-0EA4B25D0D73}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11760" xr2:uid="{BEDFEEE4-B2E8-4A65-8B9A-7710D9E2A3E9}"/>
   </bookViews>
@@ -6243,9 +6243,7 @@
       <c r="C415" t="s">
         <v>16</v>
       </c>
-      <c r="D415" s="1" t="e">
-        <v>#VALUE!</v>
-      </c>
+      <c r="D415" s="1"/>
     </row>
     <row r="416" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A416">

--- a/Data/g2.5.xlsx
+++ b/Data/g2.5.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D253"/>
+  <dimension ref="A1:D271"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -457,7 +457,7 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>2023</v>
+        <v>2024</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
@@ -470,12 +470,12 @@
         </is>
       </c>
       <c r="D2" t="n">
-        <v>3.958674615689266</v>
+        <v>3.675831215098398</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>2023</v>
+        <v>2024</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
@@ -488,12 +488,12 @@
         </is>
       </c>
       <c r="D3" t="n">
-        <v>3.688893459246691</v>
+        <v>4.136474274995534</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>2023</v>
+        <v>2024</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
@@ -506,12 +506,12 @@
         </is>
       </c>
       <c r="D4" t="n">
-        <v>7.949672194369456</v>
+        <v>10.26204532470006</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>2023</v>
+        <v>2024</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
@@ -524,12 +524,12 @@
         </is>
       </c>
       <c r="D5" t="n">
-        <v>4.039599274657188</v>
+        <v>4.032564298537764</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>2023</v>
+        <v>2024</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
@@ -542,12 +542,12 @@
         </is>
       </c>
       <c r="D6" t="n">
-        <v>15.48298020831962</v>
+        <v>19.13326559508521</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>2023</v>
+        <v>2024</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
@@ -560,12 +560,12 @@
         </is>
       </c>
       <c r="D7" t="n">
-        <v>1.940666965342156</v>
+        <v>1.903636625619313</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>2023</v>
+        <v>2024</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
@@ -578,12 +578,12 @@
         </is>
       </c>
       <c r="D8" t="n">
-        <v>4.680331023163609</v>
+        <v>3.962237188195508</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>2023</v>
+        <v>2024</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
@@ -596,12 +596,12 @@
         </is>
       </c>
       <c r="D9" t="n">
-        <v>4.936878649203093</v>
+        <v>4.783804143126177</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>2023</v>
+        <v>2024</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
@@ -614,12 +614,12 @@
         </is>
       </c>
       <c r="D10" t="n">
-        <v>7.891681278005065</v>
+        <v>10.25189158126616</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>2023</v>
+        <v>2024</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
@@ -632,12 +632,12 @@
         </is>
       </c>
       <c r="D11" t="n">
-        <v>4.389984675465915</v>
+        <v>4.344963808866011</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>2023</v>
+        <v>2024</v>
       </c>
       <c r="B12" t="inlineStr">
         <is>
@@ -650,12 +650,12 @@
         </is>
       </c>
       <c r="D12" t="n">
-        <v>10.07348492936194</v>
+        <v>9.776293823038397</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>2023</v>
+        <v>2024</v>
       </c>
       <c r="B13" t="inlineStr">
         <is>
@@ -671,7 +671,7 @@
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>2023</v>
+        <v>2024</v>
       </c>
       <c r="B14" t="inlineStr">
         <is>
@@ -687,7 +687,7 @@
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>2023</v>
+        <v>2024</v>
       </c>
       <c r="B15" t="inlineStr">
         <is>
@@ -700,12 +700,12 @@
         </is>
       </c>
       <c r="D15" t="n">
-        <v>3.495344506517691</v>
+        <v>4.267112712300566</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>2023</v>
+        <v>2024</v>
       </c>
       <c r="B16" t="inlineStr">
         <is>
@@ -718,12 +718,12 @@
         </is>
       </c>
       <c r="D16" t="n">
-        <v>5.153846153846154</v>
+        <v>5.136363636363636</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>2023</v>
+        <v>2024</v>
       </c>
       <c r="B17" t="inlineStr">
         <is>
@@ -736,12 +736,12 @@
         </is>
       </c>
       <c r="D17" t="n">
-        <v>4.39355581127733</v>
+        <v>4.230476190476191</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>2023</v>
+        <v>2024</v>
       </c>
       <c r="B18" t="inlineStr">
         <is>
@@ -757,7 +757,7 @@
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>2023</v>
+        <v>2024</v>
       </c>
       <c r="B19" t="inlineStr">
         <is>
@@ -773,7 +773,7 @@
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>2022</v>
+        <v>2023</v>
       </c>
       <c r="B20" t="inlineStr">
         <is>
@@ -786,12 +786,12 @@
         </is>
       </c>
       <c r="D20" t="n">
-        <v>4.811991789471093</v>
+        <v>4.042071590600994</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>2022</v>
+        <v>2023</v>
       </c>
       <c r="B21" t="inlineStr">
         <is>
@@ -804,12 +804,12 @@
         </is>
       </c>
       <c r="D21" t="n">
-        <v>2.84584119254992</v>
+        <v>3.720454545504459</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>2022</v>
+        <v>2023</v>
       </c>
       <c r="B22" t="inlineStr">
         <is>
@@ -822,12 +822,12 @@
         </is>
       </c>
       <c r="D22" t="n">
-        <v>6.999802321982392</v>
+        <v>8.077013591545716</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>2022</v>
+        <v>2023</v>
       </c>
       <c r="B23" t="inlineStr">
         <is>
@@ -840,12 +840,12 @@
         </is>
       </c>
       <c r="D23" t="n">
-        <v>4.026910995957757</v>
+        <v>4.074338784168265</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>2022</v>
+        <v>2023</v>
       </c>
       <c r="B24" t="inlineStr">
         <is>
@@ -858,12 +858,12 @@
         </is>
       </c>
       <c r="D24" t="n">
-        <v>11.86263722682233</v>
+        <v>15.74938567901253</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>2022</v>
+        <v>2023</v>
       </c>
       <c r="B25" t="inlineStr">
         <is>
@@ -876,12 +876,12 @@
         </is>
       </c>
       <c r="D25" t="n">
-        <v>2.363063535102247</v>
+        <v>1.882669757281714</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>2022</v>
+        <v>2023</v>
       </c>
       <c r="B26" t="inlineStr">
         <is>
@@ -894,12 +894,12 @@
         </is>
       </c>
       <c r="D26" t="n">
-        <v>4.587356641472971</v>
+        <v>4.720370638377572</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>2022</v>
+        <v>2023</v>
       </c>
       <c r="B27" t="inlineStr">
         <is>
@@ -912,12 +912,12 @@
         </is>
       </c>
       <c r="D27" t="n">
-        <v>3.768040035365428</v>
+        <v>4.979117129282009</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>2022</v>
+        <v>2023</v>
       </c>
       <c r="B28" t="inlineStr">
         <is>
@@ -930,12 +930,12 @@
         </is>
       </c>
       <c r="D28" t="n">
-        <v>6.993781796800281</v>
+        <v>8.018391029741775</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>2022</v>
+        <v>2023</v>
       </c>
       <c r="B29" t="inlineStr">
         <is>
@@ -948,12 +948,12 @@
         </is>
       </c>
       <c r="D29" t="n">
-        <v>3.952951761403964</v>
+        <v>4.427462387478509</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>2022</v>
+        <v>2023</v>
       </c>
       <c r="B30" t="inlineStr">
         <is>
@@ -966,12 +966,12 @@
         </is>
       </c>
       <c r="D30" t="n">
-        <v>8.631543045669728</v>
+        <v>10.70624248456706</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>2022</v>
+        <v>2023</v>
       </c>
       <c r="B31" t="inlineStr">
         <is>
@@ -987,7 +987,7 @@
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>2022</v>
+        <v>2023</v>
       </c>
       <c r="B32" t="inlineStr">
         <is>
@@ -1003,7 +1003,7 @@
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>2022</v>
+        <v>2023</v>
       </c>
       <c r="B33" t="inlineStr">
         <is>
@@ -1016,12 +1016,12 @@
         </is>
       </c>
       <c r="D33" t="n">
-        <v>2.012579848367287</v>
+        <v>3.525249644925605</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="n">
-        <v>2022</v>
+        <v>2023</v>
       </c>
       <c r="B34" t="inlineStr">
         <is>
@@ -1034,12 +1034,12 @@
         </is>
       </c>
       <c r="D34" t="n">
-        <v>4.891374345419823</v>
+        <v>5.197940944009603</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="n">
-        <v>2022</v>
+        <v>2023</v>
       </c>
       <c r="B35" t="inlineStr">
         <is>
@@ -1052,12 +1052,12 @@
         </is>
       </c>
       <c r="D35" t="n">
-        <v>3.293900241035857</v>
+        <v>4.431145781134133</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="n">
-        <v>2022</v>
+        <v>2023</v>
       </c>
       <c r="B36" t="inlineStr">
         <is>
@@ -1073,7 +1073,7 @@
     </row>
     <row r="37">
       <c r="A37" t="n">
-        <v>2022</v>
+        <v>2023</v>
       </c>
       <c r="B37" t="inlineStr">
         <is>
@@ -1089,7 +1089,7 @@
     </row>
     <row r="38">
       <c r="A38" t="n">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="B38" t="inlineStr">
         <is>
@@ -1102,12 +1102,12 @@
         </is>
       </c>
       <c r="D38" t="n">
-        <v>4.801642669845373</v>
+        <v>4.853161774350565</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="n">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="B39" t="inlineStr">
         <is>
@@ -1120,12 +1120,12 @@
         </is>
       </c>
       <c r="D39" t="n">
-        <v>3.448519577373827</v>
+        <v>2.870189371847111</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="n">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="B40" t="inlineStr">
         <is>
@@ -1138,12 +1138,12 @@
         </is>
       </c>
       <c r="D40" t="n">
-        <v>6.684091975876822</v>
+        <v>7.059690569586193</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="n">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="B41" t="inlineStr">
         <is>
@@ -1156,12 +1156,12 @@
         </is>
       </c>
       <c r="D41" t="n">
-        <v>4.304140145704848</v>
+        <v>4.061364060731748</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="n">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="B42" t="inlineStr">
         <is>
@@ -1174,12 +1174,12 @@
         </is>
       </c>
       <c r="D42" t="n">
-        <v>9.467748957888656</v>
+        <v>11.96413045803015</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="n">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="B43" t="inlineStr">
         <is>
@@ -1192,12 +1192,12 @@
         </is>
       </c>
       <c r="D43" t="n">
-        <v>2.232672503569076</v>
+        <v>2.383281210914218</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="n">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="B44" t="inlineStr">
         <is>
@@ -1210,12 +1210,12 @@
         </is>
       </c>
       <c r="D44" t="n">
-        <v>3.427100354534266</v>
+        <v>4.626604714169067</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="n">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="B45" t="inlineStr">
         <is>
@@ -1228,12 +1228,12 @@
         </is>
       </c>
       <c r="D45" t="n">
-        <v>4.055966739362666</v>
+        <v>3.800278276424083</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="n">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="B46" t="inlineStr">
         <is>
@@ -1246,12 +1246,12 @@
         </is>
       </c>
       <c r="D46" t="n">
-        <v>6.685063946341414</v>
+        <v>7.053618534563345</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="n">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="B47" t="inlineStr">
         <is>
@@ -1264,12 +1264,12 @@
         </is>
       </c>
       <c r="D47" t="n">
-        <v>4.413244205835085</v>
+        <v>3.986772052744105</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="n">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="B48" t="inlineStr">
         <is>
@@ -1282,12 +1282,12 @@
         </is>
       </c>
       <c r="D48" t="n">
-        <v>6.627905835294092</v>
+        <v>8.705391986446037</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="n">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="B49" t="inlineStr">
         <is>
@@ -1303,7 +1303,7 @@
     </row>
     <row r="50">
       <c r="A50" t="n">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="B50" t="inlineStr">
         <is>
@@ -1319,7 +1319,7 @@
     </row>
     <row r="51">
       <c r="A51" t="n">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="B51" t="inlineStr">
         <is>
@@ -1332,12 +1332,12 @@
         </is>
       </c>
       <c r="D51" t="n">
-        <v>1.62523887393714</v>
+        <v>2.029798888954037</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="n">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="B52" t="inlineStr">
         <is>
@@ -1350,12 +1350,12 @@
         </is>
       </c>
       <c r="D52" t="n">
-        <v>5.001277713277558</v>
+        <v>4.933223504074124</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="n">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="B53" t="inlineStr">
         <is>
@@ -1368,12 +1368,12 @@
         </is>
       </c>
       <c r="D53" t="n">
-        <v>3.247351975677289</v>
+        <v>3.322081881622746</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="n">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="B54" t="inlineStr">
         <is>
@@ -1385,13 +1385,11 @@
           <t>Fumo (em folha)</t>
         </is>
       </c>
-      <c r="D54" t="n">
-        <v>10.35978954893208</v>
-      </c>
+      <c r="D54" t="inlineStr"/>
     </row>
     <row r="55">
       <c r="A55" t="n">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="B55" t="inlineStr">
         <is>
@@ -1407,7 +1405,7 @@
     </row>
     <row r="56">
       <c r="A56" t="n">
-        <v>2020</v>
+        <v>2021</v>
       </c>
       <c r="B56" t="inlineStr">
         <is>
@@ -1420,12 +1418,12 @@
         </is>
       </c>
       <c r="D56" t="n">
-        <v>3.79538022415971</v>
+        <v>4.842724110704583</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="n">
-        <v>2020</v>
+        <v>2021</v>
       </c>
       <c r="B57" t="inlineStr">
         <is>
@@ -1438,12 +1436,12 @@
         </is>
       </c>
       <c r="D57" t="n">
-        <v>3.461392378950717</v>
+        <v>3.478024095475394</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="n">
-        <v>2020</v>
+        <v>2021</v>
       </c>
       <c r="B58" t="inlineStr">
         <is>
@@ -1456,12 +1454,12 @@
         </is>
       </c>
       <c r="D58" t="n">
-        <v>8.206373146529005</v>
+        <v>6.741279098718959</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="n">
-        <v>2020</v>
+        <v>2021</v>
       </c>
       <c r="B59" t="inlineStr">
         <is>
@@ -1474,12 +1472,12 @@
         </is>
       </c>
       <c r="D59" t="n">
-        <v>4.981084183437648</v>
+        <v>4.340965101455089</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="n">
-        <v>2020</v>
+        <v>2021</v>
       </c>
       <c r="B60" t="inlineStr">
         <is>
@@ -1492,12 +1490,12 @@
         </is>
       </c>
       <c r="D60" t="n">
-        <v>12.08040614902502</v>
+        <v>9.548752230232507</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="n">
-        <v>2020</v>
+        <v>2021</v>
       </c>
       <c r="B61" t="inlineStr">
         <is>
@@ -1510,12 +1508,12 @@
         </is>
       </c>
       <c r="D61" t="n">
-        <v>1.66833265021298</v>
+        <v>2.251774592108352</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="n">
-        <v>2020</v>
+        <v>2021</v>
       </c>
       <c r="B62" t="inlineStr">
         <is>
@@ -1528,12 +1526,12 @@
         </is>
       </c>
       <c r="D62" t="n">
-        <v>4.10219455016701</v>
+        <v>3.45642161607202</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="n">
-        <v>2020</v>
+        <v>2021</v>
       </c>
       <c r="B63" t="inlineStr">
         <is>
@@ -1546,12 +1544,12 @@
         </is>
       </c>
       <c r="D63" t="n">
-        <v>4.012498404347991</v>
+        <v>4.090668396521885</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="n">
-        <v>2020</v>
+        <v>2021</v>
       </c>
       <c r="B64" t="inlineStr">
         <is>
@@ -1564,12 +1562,12 @@
         </is>
       </c>
       <c r="D64" t="n">
-        <v>8.217084552379916</v>
+        <v>6.742259385076654</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="n">
-        <v>2020</v>
+        <v>2021</v>
       </c>
       <c r="B65" t="inlineStr">
         <is>
@@ -1582,12 +1580,12 @@
         </is>
       </c>
       <c r="D65" t="n">
-        <v>4.853781642079928</v>
+        <v>4.451002623798557</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="n">
-        <v>2020</v>
+        <v>2021</v>
       </c>
       <c r="B66" t="inlineStr">
         <is>
@@ -1600,12 +1598,12 @@
         </is>
       </c>
       <c r="D66" t="n">
-        <v>10.40740397763605</v>
+        <v>6.684612246061183</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="n">
-        <v>2020</v>
+        <v>2021</v>
       </c>
       <c r="B67" t="inlineStr">
         <is>
@@ -1621,7 +1619,7 @@
     </row>
     <row r="68">
       <c r="A68" t="n">
-        <v>2020</v>
+        <v>2021</v>
       </c>
       <c r="B68" t="inlineStr">
         <is>
@@ -1637,7 +1635,7 @@
     </row>
     <row r="69">
       <c r="A69" t="n">
-        <v>2020</v>
+        <v>2021</v>
       </c>
       <c r="B69" t="inlineStr">
         <is>
@@ -1650,12 +1648,12 @@
         </is>
       </c>
       <c r="D69" t="n">
-        <v>1.981337527240244</v>
+        <v>1.639143939197626</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="n">
-        <v>2020</v>
+        <v>2021</v>
       </c>
       <c r="B70" t="inlineStr">
         <is>
@@ -1668,12 +1666,12 @@
         </is>
       </c>
       <c r="D70" t="n">
-        <v>6.894080493734903</v>
+        <v>5.044067172786653</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="n">
-        <v>2020</v>
+        <v>2021</v>
       </c>
       <c r="B71" t="inlineStr">
         <is>
@@ -1686,12 +1684,12 @@
         </is>
       </c>
       <c r="D71" t="n">
-        <v>3.699982704872121</v>
+        <v>3.275135363011715</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="n">
-        <v>2020</v>
+        <v>2021</v>
       </c>
       <c r="B72" t="inlineStr">
         <is>
@@ -1704,12 +1702,12 @@
         </is>
       </c>
       <c r="D72" t="n">
-        <v>7.014326083741907</v>
+        <v>10.44842485791521</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="n">
-        <v>2020</v>
+        <v>2021</v>
       </c>
       <c r="B73" t="inlineStr">
         <is>
@@ -1725,7 +1723,7 @@
     </row>
     <row r="74">
       <c r="A74" t="n">
-        <v>2019</v>
+        <v>2020</v>
       </c>
       <c r="B74" t="inlineStr">
         <is>
@@ -1738,12 +1736,12 @@
         </is>
       </c>
       <c r="D74" t="n">
-        <v>3.841695616512623</v>
+        <v>3.827852379823482</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="n">
-        <v>2019</v>
+        <v>2020</v>
       </c>
       <c r="B75" t="inlineStr">
         <is>
@@ -1756,12 +1754,12 @@
         </is>
       </c>
       <c r="D75" t="n">
-        <v>3.012839873283728</v>
+        <v>3.491007032952231</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="n">
-        <v>2019</v>
+        <v>2020</v>
       </c>
       <c r="B76" t="inlineStr">
         <is>
@@ -1774,12 +1772,12 @@
         </is>
       </c>
       <c r="D76" t="n">
-        <v>8.41104979869859</v>
+        <v>8.276584458837796</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="n">
-        <v>2019</v>
+        <v>2020</v>
       </c>
       <c r="B77" t="inlineStr">
         <is>
@@ -1792,12 +1790,12 @@
         </is>
       </c>
       <c r="D77" t="n">
-        <v>4.253433159286007</v>
+        <v>5.023700873051334</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="n">
-        <v>2019</v>
+        <v>2020</v>
       </c>
       <c r="B78" t="inlineStr">
         <is>
@@ -1810,12 +1808,12 @@
         </is>
       </c>
       <c r="D78" t="n">
-        <v>14.42848773664895</v>
+        <v>12.18376254701004</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="n">
-        <v>2019</v>
+        <v>2020</v>
       </c>
       <c r="B79" t="inlineStr">
         <is>
@@ -1828,12 +1826,12 @@
         </is>
       </c>
       <c r="D79" t="n">
-        <v>1.827464808241921</v>
+        <v>1.682606413134497</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="n">
-        <v>2019</v>
+        <v>2020</v>
       </c>
       <c r="B80" t="inlineStr">
         <is>
@@ -1846,12 +1844,12 @@
         </is>
       </c>
       <c r="D80" t="n">
-        <v>4.10875723507451</v>
+        <v>4.137291718863881</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="n">
-        <v>2019</v>
+        <v>2020</v>
       </c>
       <c r="B81" t="inlineStr">
         <is>
@@ -1864,12 +1862,12 @@
         </is>
       </c>
       <c r="D81" t="n">
-        <v>4.11711668584633</v>
+        <v>4.046828159231897</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="n">
-        <v>2019</v>
+        <v>2020</v>
       </c>
       <c r="B82" t="inlineStr">
         <is>
@@ -1882,12 +1880,12 @@
         </is>
       </c>
       <c r="D82" t="n">
-        <v>8.428297063620297</v>
+        <v>8.287387508323238</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="n">
-        <v>2019</v>
+        <v>2020</v>
       </c>
       <c r="B83" t="inlineStr">
         <is>
@@ -1900,12 +1898,12 @@
         </is>
       </c>
       <c r="D83" t="n">
-        <v>3.889608814211068</v>
+        <v>4.89530916863347</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="n">
-        <v>2019</v>
+        <v>2020</v>
       </c>
       <c r="B84" t="inlineStr">
         <is>
@@ -1918,12 +1916,12 @@
         </is>
       </c>
       <c r="D84" t="n">
-        <v>11.52699997828508</v>
+        <v>10.49644666165129</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="n">
-        <v>2019</v>
+        <v>2020</v>
       </c>
       <c r="B85" t="inlineStr">
         <is>
@@ -1939,7 +1937,7 @@
     </row>
     <row r="86">
       <c r="A86" t="n">
-        <v>2019</v>
+        <v>2020</v>
       </c>
       <c r="B86" t="inlineStr">
         <is>
@@ -1951,13 +1949,11 @@
           <t>Algodão herbáceo (em caroço)</t>
         </is>
       </c>
-      <c r="D86" t="n">
-        <v>2.482336547825232</v>
-      </c>
+      <c r="D86" t="inlineStr"/>
     </row>
     <row r="87">
       <c r="A87" t="n">
-        <v>2019</v>
+        <v>2020</v>
       </c>
       <c r="B87" t="inlineStr">
         <is>
@@ -1970,12 +1966,12 @@
         </is>
       </c>
       <c r="D87" t="n">
-        <v>2.283972088813059</v>
+        <v>1.998289267726604</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="n">
-        <v>2019</v>
+        <v>2020</v>
       </c>
       <c r="B88" t="inlineStr">
         <is>
@@ -1988,12 +1984,12 @@
         </is>
       </c>
       <c r="D88" t="n">
-        <v>6.340021723499578</v>
+        <v>6.953064216505578</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="n">
-        <v>2019</v>
+        <v>2020</v>
       </c>
       <c r="B89" t="inlineStr">
         <is>
@@ -2006,12 +2002,12 @@
         </is>
       </c>
       <c r="D89" t="n">
-        <v>3.302016673106417</v>
+        <v>3.731638667450278</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="n">
-        <v>2019</v>
+        <v>2020</v>
       </c>
       <c r="B90" t="inlineStr">
         <is>
@@ -2024,12 +2020,12 @@
         </is>
       </c>
       <c r="D90" t="n">
-        <v>7.30760306198551</v>
+        <v>7.074338592374862</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="n">
-        <v>2019</v>
+        <v>2020</v>
       </c>
       <c r="B91" t="inlineStr">
         <is>
@@ -2045,7 +2041,7 @@
     </row>
     <row r="92">
       <c r="A92" t="n">
-        <v>2018</v>
+        <v>2019</v>
       </c>
       <c r="B92" t="inlineStr">
         <is>
@@ -2058,12 +2054,12 @@
         </is>
       </c>
       <c r="D92" t="n">
-        <v>4.579208928832115</v>
+        <v>3.87456403303599</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="n">
-        <v>2018</v>
+        <v>2019</v>
       </c>
       <c r="B93" t="inlineStr">
         <is>
@@ -2076,12 +2072,12 @@
         </is>
       </c>
       <c r="D93" t="n">
-        <v>2.770188020167967</v>
+        <v>3.038616844121202</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="n">
-        <v>2018</v>
+        <v>2019</v>
       </c>
       <c r="B94" t="inlineStr">
         <is>
@@ -2094,12 +2090,12 @@
         </is>
       </c>
       <c r="D94" t="n">
-        <v>8.711946990153541</v>
+        <v>8.483012264177146</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="n">
-        <v>2018</v>
+        <v>2019</v>
       </c>
       <c r="B95" t="inlineStr">
         <is>
@@ -2112,12 +2108,12 @@
         </is>
       </c>
       <c r="D95" t="n">
-        <v>3.393354761479768</v>
+        <v>4.289824280990913</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="n">
-        <v>2018</v>
+        <v>2019</v>
       </c>
       <c r="B96" t="inlineStr">
         <is>
@@ -2130,12 +2126,12 @@
         </is>
       </c>
       <c r="D96" t="n">
-        <v>15.09374407297138</v>
+        <v>14.55193362931469</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="n">
-        <v>2018</v>
+        <v>2019</v>
       </c>
       <c r="B97" t="inlineStr">
         <is>
@@ -2148,12 +2144,12 @@
         </is>
       </c>
       <c r="D97" t="n">
-        <v>1.969115283691191</v>
+        <v>1.843100059051723</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="n">
-        <v>2018</v>
+        <v>2019</v>
       </c>
       <c r="B98" t="inlineStr">
         <is>
@@ -2166,12 +2162,12 @@
         </is>
       </c>
       <c r="D98" t="n">
-        <v>4.966734697100628</v>
+        <v>4.143910552171094</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="n">
-        <v>2018</v>
+        <v>2019</v>
       </c>
       <c r="B99" t="inlineStr">
         <is>
@@ -2184,12 +2180,12 @@
         </is>
       </c>
       <c r="D99" t="n">
-        <v>3.960001474788809</v>
+        <v>4.152341523942312</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="n">
-        <v>2018</v>
+        <v>2019</v>
       </c>
       <c r="B100" t="inlineStr">
         <is>
@@ -2202,12 +2198,12 @@
         </is>
       </c>
       <c r="D100" t="n">
-        <v>8.721939169358734</v>
+        <v>8.500407091619136</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="n">
-        <v>2018</v>
+        <v>2019</v>
       </c>
       <c r="B101" t="inlineStr">
         <is>
@@ -2220,12 +2216,12 @@
         </is>
       </c>
       <c r="D101" t="n">
-        <v>3.747286735614877</v>
+        <v>3.922887161946098</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="n">
-        <v>2018</v>
+        <v>2019</v>
       </c>
       <c r="B102" t="inlineStr">
         <is>
@@ -2238,12 +2234,12 @@
         </is>
       </c>
       <c r="D102" t="n">
-        <v>19.31780884687911</v>
+        <v>11.62562159602143</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" t="n">
-        <v>2018</v>
+        <v>2019</v>
       </c>
       <c r="B103" t="inlineStr">
         <is>
@@ -2259,7 +2255,7 @@
     </row>
     <row r="104">
       <c r="A104" t="n">
-        <v>2018</v>
+        <v>2019</v>
       </c>
       <c r="B104" t="inlineStr">
         <is>
@@ -2271,11 +2267,13 @@
           <t>Algodão herbáceo (em caroço)</t>
         </is>
       </c>
-      <c r="D104" t="inlineStr"/>
+      <c r="D104" t="n">
+        <v>2.503574688414611</v>
+      </c>
     </row>
     <row r="105">
       <c r="A105" t="n">
-        <v>2018</v>
+        <v>2019</v>
       </c>
       <c r="B105" t="inlineStr">
         <is>
@@ -2288,12 +2286,12 @@
         </is>
       </c>
       <c r="D105" t="n">
-        <v>3.528332927513696</v>
+        <v>2.303513081498731</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" t="n">
-        <v>2018</v>
+        <v>2019</v>
       </c>
       <c r="B106" t="inlineStr">
         <is>
@@ -2306,12 +2304,12 @@
         </is>
       </c>
       <c r="D106" t="n">
-        <v>6.44396470577028</v>
+        <v>6.394265082572453</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" t="n">
-        <v>2018</v>
+        <v>2019</v>
       </c>
       <c r="B107" t="inlineStr">
         <is>
@@ -2324,12 +2322,12 @@
         </is>
       </c>
       <c r="D107" t="n">
-        <v>3.78580200344597</v>
+        <v>3.330267755496252</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" t="n">
-        <v>2018</v>
+        <v>2019</v>
       </c>
       <c r="B108" t="inlineStr">
         <is>
@@ -2342,12 +2340,12 @@
         </is>
       </c>
       <c r="D108" t="n">
-        <v>7.708225140149178</v>
+        <v>7.370124762090113</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" t="n">
-        <v>2018</v>
+        <v>2019</v>
       </c>
       <c r="B109" t="inlineStr">
         <is>
@@ -2363,7 +2361,7 @@
     </row>
     <row r="110">
       <c r="A110" t="n">
-        <v>2017</v>
+        <v>2018</v>
       </c>
       <c r="B110" t="inlineStr">
         <is>
@@ -2376,12 +2374,12 @@
         </is>
       </c>
       <c r="D110" t="n">
-        <v>4.137696236116406</v>
+        <v>4.618387292097919</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" t="n">
-        <v>2017</v>
+        <v>2018</v>
       </c>
       <c r="B111" t="inlineStr">
         <is>
@@ -2394,12 +2392,12 @@
         </is>
       </c>
       <c r="D111" t="n">
-        <v>3.22000674699247</v>
+        <v>2.793888933198025</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" t="n">
-        <v>2017</v>
+        <v>2018</v>
       </c>
       <c r="B112" t="inlineStr">
         <is>
@@ -2412,12 +2410,12 @@
         </is>
       </c>
       <c r="D112" t="n">
-        <v>12.20944499065218</v>
+        <v>8.786483843404241</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" t="n">
-        <v>2017</v>
+        <v>2018</v>
       </c>
       <c r="B113" t="inlineStr">
         <is>
@@ -2430,12 +2428,12 @@
         </is>
       </c>
       <c r="D113" t="n">
-        <v>4.328239241896471</v>
+        <v>3.422387305659599</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" t="n">
-        <v>2017</v>
+        <v>2018</v>
       </c>
       <c r="B114" t="inlineStr">
         <is>
@@ -2448,12 +2446,12 @@
         </is>
       </c>
       <c r="D114" t="n">
-        <v>15.13977426835101</v>
+        <v>15.2228817029687</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" t="n">
-        <v>2017</v>
+        <v>2018</v>
       </c>
       <c r="B115" t="inlineStr">
         <is>
@@ -2466,12 +2464,12 @@
         </is>
       </c>
       <c r="D115" t="n">
-        <v>2.010696035215358</v>
+        <v>1.985962454260535</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" t="n">
-        <v>2017</v>
+        <v>2018</v>
       </c>
       <c r="B116" t="inlineStr">
         <is>
@@ -2484,12 +2482,12 @@
         </is>
       </c>
       <c r="D116" t="n">
-        <v>4.451689654148884</v>
+        <v>5.009228616734362</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" t="n">
-        <v>2017</v>
+        <v>2018</v>
       </c>
       <c r="B117" t="inlineStr">
         <is>
@@ -2502,12 +2500,12 @@
         </is>
       </c>
       <c r="D117" t="n">
-        <v>4.385793464416428</v>
+        <v>3.993882081400913</v>
       </c>
     </row>
     <row r="118">
       <c r="A118" t="n">
-        <v>2017</v>
+        <v>2018</v>
       </c>
       <c r="B118" t="inlineStr">
         <is>
@@ -2520,12 +2518,12 @@
         </is>
       </c>
       <c r="D118" t="n">
-        <v>12.38095445272831</v>
+        <v>8.796561512752559</v>
       </c>
     </row>
     <row r="119">
       <c r="A119" t="n">
-        <v>2017</v>
+        <v>2018</v>
       </c>
       <c r="B119" t="inlineStr">
         <is>
@@ -2538,12 +2536,12 @@
         </is>
       </c>
       <c r="D119" t="n">
-        <v>4.657643818858953</v>
+        <v>3.77934741755159</v>
       </c>
     </row>
     <row r="120">
       <c r="A120" t="n">
-        <v>2017</v>
+        <v>2018</v>
       </c>
       <c r="B120" t="inlineStr">
         <is>
@@ -2556,12 +2554,12 @@
         </is>
       </c>
       <c r="D120" t="n">
-        <v>11.27563865706953</v>
+        <v>19.48308633132344</v>
       </c>
     </row>
     <row r="121">
       <c r="A121" t="n">
-        <v>2017</v>
+        <v>2018</v>
       </c>
       <c r="B121" t="inlineStr">
         <is>
@@ -2577,7 +2575,7 @@
     </row>
     <row r="122">
       <c r="A122" t="n">
-        <v>2017</v>
+        <v>2018</v>
       </c>
       <c r="B122" t="inlineStr">
         <is>
@@ -2593,7 +2591,7 @@
     </row>
     <row r="123">
       <c r="A123" t="n">
-        <v>2017</v>
+        <v>2018</v>
       </c>
       <c r="B123" t="inlineStr">
         <is>
@@ -2606,12 +2604,12 @@
         </is>
       </c>
       <c r="D123" t="n">
-        <v>3.544675590316965</v>
+        <v>3.558520305138346</v>
       </c>
     </row>
     <row r="124">
       <c r="A124" t="n">
-        <v>2017</v>
+        <v>2018</v>
       </c>
       <c r="B124" t="inlineStr">
         <is>
@@ -2624,12 +2622,12 @@
         </is>
       </c>
       <c r="D124" t="n">
-        <v>9.873149543347745</v>
+        <v>6.499097370393878</v>
       </c>
     </row>
     <row r="125">
       <c r="A125" t="n">
-        <v>2017</v>
+        <v>2018</v>
       </c>
       <c r="B125" t="inlineStr">
         <is>
@@ -2642,12 +2640,12 @@
         </is>
       </c>
       <c r="D125" t="n">
-        <v>2.942218182920405</v>
+        <v>3.818192210673584</v>
       </c>
     </row>
     <row r="126">
       <c r="A126" t="n">
-        <v>2017</v>
+        <v>2018</v>
       </c>
       <c r="B126" t="inlineStr">
         <is>
@@ -2660,12 +2658,12 @@
         </is>
       </c>
       <c r="D126" t="n">
-        <v>9.047666563105633</v>
+        <v>7.774174444793021</v>
       </c>
     </row>
     <row r="127">
       <c r="A127" t="n">
-        <v>2017</v>
+        <v>2018</v>
       </c>
       <c r="B127" t="inlineStr">
         <is>
@@ -2681,7 +2679,7 @@
     </row>
     <row r="128">
       <c r="A128" t="n">
-        <v>2016</v>
+        <v>2017</v>
       </c>
       <c r="B128" t="inlineStr">
         <is>
@@ -2694,12 +2692,12 @@
         </is>
       </c>
       <c r="D128" t="n">
-        <v>4.049354043089613</v>
+        <v>4.173097146784934</v>
       </c>
     </row>
     <row r="129">
       <c r="A129" t="n">
-        <v>2016</v>
+        <v>2017</v>
       </c>
       <c r="B129" t="inlineStr">
         <is>
@@ -2712,12 +2710,12 @@
         </is>
       </c>
       <c r="D129" t="n">
-        <v>3.025325408342666</v>
+        <v>3.24755617660196</v>
       </c>
     </row>
     <row r="130">
       <c r="A130" t="n">
-        <v>2016</v>
+        <v>2017</v>
       </c>
       <c r="B130" t="inlineStr">
         <is>
@@ -2730,12 +2728,12 @@
         </is>
       </c>
       <c r="D130" t="n">
-        <v>15.78432550224766</v>
+        <v>12.31390540697121</v>
       </c>
     </row>
     <row r="131">
       <c r="A131" t="n">
-        <v>2016</v>
+        <v>2017</v>
       </c>
       <c r="B131" t="inlineStr">
         <is>
@@ -2748,12 +2746,12 @@
         </is>
       </c>
       <c r="D131" t="n">
-        <v>6.993666127752176</v>
+        <v>4.365270382417846</v>
       </c>
     </row>
     <row r="132">
       <c r="A132" t="n">
-        <v>2016</v>
+        <v>2017</v>
       </c>
       <c r="B132" t="inlineStr">
         <is>
@@ -2766,12 +2764,12 @@
         </is>
       </c>
       <c r="D132" t="n">
-        <v>15.91495869859024</v>
+        <v>15.26930571914659</v>
       </c>
     </row>
     <row r="133">
       <c r="A133" t="n">
-        <v>2016</v>
+        <v>2017</v>
       </c>
       <c r="B133" t="inlineStr">
         <is>
@@ -2784,12 +2782,12 @@
         </is>
       </c>
       <c r="D133" t="n">
-        <v>1.983004703130995</v>
+        <v>2.027898958451462</v>
       </c>
     </row>
     <row r="134">
       <c r="A134" t="n">
-        <v>2016</v>
+        <v>2017</v>
       </c>
       <c r="B134" t="inlineStr">
         <is>
@@ -2802,12 +2800,12 @@
         </is>
       </c>
       <c r="D134" t="n">
-        <v>3.768252416984954</v>
+        <v>4.489777000048024</v>
       </c>
     </row>
     <row r="135">
       <c r="A135" t="n">
-        <v>2016</v>
+        <v>2017</v>
       </c>
       <c r="B135" t="inlineStr">
         <is>
@@ -2820,12 +2818,12 @@
         </is>
       </c>
       <c r="D135" t="n">
-        <v>3.975250085412611</v>
+        <v>4.42331702191908</v>
       </c>
     </row>
     <row r="136">
       <c r="A136" t="n">
-        <v>2016</v>
+        <v>2017</v>
       </c>
       <c r="B136" t="inlineStr">
         <is>
@@ -2838,12 +2836,12 @@
         </is>
       </c>
       <c r="D136" t="n">
-        <v>15.85125106760162</v>
+        <v>12.48688225350461</v>
       </c>
     </row>
     <row r="137">
       <c r="A137" t="n">
-        <v>2016</v>
+        <v>2017</v>
       </c>
       <c r="B137" t="inlineStr">
         <is>
@@ -2856,12 +2854,12 @@
         </is>
       </c>
       <c r="D137" t="n">
-        <v>7.591958587553389</v>
+        <v>4.697493247948993</v>
       </c>
     </row>
     <row r="138">
       <c r="A138" t="n">
-        <v>2016</v>
+        <v>2017</v>
       </c>
       <c r="B138" t="inlineStr">
         <is>
@@ -2874,12 +2872,12 @@
         </is>
       </c>
       <c r="D138" t="n">
-        <v>9.347060097459856</v>
+        <v>11.37210970135387</v>
       </c>
     </row>
     <row r="139">
       <c r="A139" t="n">
-        <v>2016</v>
+        <v>2017</v>
       </c>
       <c r="B139" t="inlineStr">
         <is>
@@ -2895,7 +2893,7 @@
     </row>
     <row r="140">
       <c r="A140" t="n">
-        <v>2016</v>
+        <v>2017</v>
       </c>
       <c r="B140" t="inlineStr">
         <is>
@@ -2911,7 +2909,7 @@
     </row>
     <row r="141">
       <c r="A141" t="n">
-        <v>2016</v>
+        <v>2017</v>
       </c>
       <c r="B141" t="inlineStr">
         <is>
@@ -2924,12 +2922,12 @@
         </is>
       </c>
       <c r="D141" t="n">
-        <v>3.186157575923786</v>
+        <v>3.57500279095253</v>
       </c>
     </row>
     <row r="142">
       <c r="A142" t="n">
-        <v>2016</v>
+        <v>2017</v>
       </c>
       <c r="B142" t="inlineStr">
         <is>
@@ -2942,12 +2940,12 @@
         </is>
       </c>
       <c r="D142" t="n">
-        <v>8.949779358674807</v>
+        <v>9.957621303732244</v>
       </c>
     </row>
     <row r="143">
       <c r="A143" t="n">
-        <v>2016</v>
+        <v>2017</v>
       </c>
       <c r="B143" t="inlineStr">
         <is>
@@ -2960,12 +2958,12 @@
         </is>
       </c>
       <c r="D143" t="n">
-        <v>6.446888736211357</v>
+        <v>2.967390935369398</v>
       </c>
     </row>
     <row r="144">
       <c r="A144" t="n">
-        <v>2016</v>
+        <v>2017</v>
       </c>
       <c r="B144" t="inlineStr">
         <is>
@@ -2978,12 +2976,12 @@
         </is>
       </c>
       <c r="D144" t="n">
-        <v>7.136050635518365</v>
+        <v>9.12507573417126</v>
       </c>
     </row>
     <row r="145">
       <c r="A145" t="n">
-        <v>2016</v>
+        <v>2017</v>
       </c>
       <c r="B145" t="inlineStr">
         <is>
@@ -2999,7 +2997,7 @@
     </row>
     <row r="146">
       <c r="A146" t="n">
-        <v>2015</v>
+        <v>2016</v>
       </c>
       <c r="B146" t="inlineStr">
         <is>
@@ -3012,12 +3010,12 @@
         </is>
       </c>
       <c r="D146" t="n">
-        <v>3.577615101043434</v>
+        <v>4.083999123966599</v>
       </c>
     </row>
     <row r="147">
       <c r="A147" t="n">
-        <v>2015</v>
+        <v>2016</v>
       </c>
       <c r="B147" t="inlineStr">
         <is>
@@ -3030,12 +3028,12 @@
         </is>
       </c>
       <c r="D147" t="n">
-        <v>2.658130093227175</v>
+        <v>3.05120920174179</v>
       </c>
     </row>
     <row r="148">
       <c r="A148" t="n">
-        <v>2015</v>
+        <v>2016</v>
       </c>
       <c r="B148" t="inlineStr">
         <is>
@@ -3048,12 +3046,12 @@
         </is>
       </c>
       <c r="D148" t="n">
-        <v>16.83449255988289</v>
+        <v>15.91937154361499</v>
       </c>
     </row>
     <row r="149">
       <c r="A149" t="n">
-        <v>2015</v>
+        <v>2016</v>
       </c>
       <c r="B149" t="inlineStr">
         <is>
@@ -3066,12 +3064,12 @@
         </is>
       </c>
       <c r="D149" t="n">
-        <v>4.089669013468059</v>
+        <v>7.053501875884922</v>
       </c>
     </row>
     <row r="150">
       <c r="A150" t="n">
-        <v>2015</v>
+        <v>2016</v>
       </c>
       <c r="B150" t="inlineStr">
         <is>
@@ -3084,12 +3082,12 @@
         </is>
       </c>
       <c r="D150" t="n">
-        <v>14.20590588453364</v>
+        <v>16.05112239912107</v>
       </c>
     </row>
     <row r="151">
       <c r="A151" t="n">
-        <v>2015</v>
+        <v>2016</v>
       </c>
       <c r="B151" t="inlineStr">
         <is>
@@ -3102,12 +3100,12 @@
         </is>
       </c>
       <c r="D151" t="n">
-        <v>1.812018695090615</v>
+        <v>1.999970707483383</v>
       </c>
     </row>
     <row r="152">
       <c r="A152" t="n">
-        <v>2015</v>
+        <v>2016</v>
       </c>
       <c r="B152" t="inlineStr">
         <is>
@@ -3120,12 +3118,12 @@
         </is>
       </c>
       <c r="D152" t="n">
-        <v>3.152403620684648</v>
+        <v>3.80049247511821</v>
       </c>
     </row>
     <row r="153">
       <c r="A153" t="n">
-        <v>2015</v>
+        <v>2016</v>
       </c>
       <c r="B153" t="inlineStr">
         <is>
@@ -3138,12 +3136,12 @@
         </is>
       </c>
       <c r="D153" t="n">
-        <v>2.949820432716626</v>
+        <v>4.009261154647321</v>
       </c>
     </row>
     <row r="154">
       <c r="A154" t="n">
-        <v>2015</v>
+        <v>2016</v>
       </c>
       <c r="B154" t="inlineStr">
         <is>
@@ -3156,12 +3154,12 @@
         </is>
       </c>
       <c r="D154" t="n">
-        <v>16.99282909580294</v>
+        <v>15.98686970440017</v>
       </c>
     </row>
     <row r="155">
       <c r="A155" t="n">
-        <v>2015</v>
+        <v>2016</v>
       </c>
       <c r="B155" t="inlineStr">
         <is>
@@ -3174,12 +3172,12 @@
         </is>
       </c>
       <c r="D155" t="n">
-        <v>3.679425407493617</v>
+        <v>7.656913149807432</v>
       </c>
     </row>
     <row r="156">
       <c r="A156" t="n">
-        <v>2015</v>
+        <v>2016</v>
       </c>
       <c r="B156" t="inlineStr">
         <is>
@@ -3192,12 +3190,12 @@
         </is>
       </c>
       <c r="D156" t="n">
-        <v>5.16160396857357</v>
+        <v>9.427030791450219</v>
       </c>
     </row>
     <row r="157">
       <c r="A157" t="n">
-        <v>2015</v>
+        <v>2016</v>
       </c>
       <c r="B157" t="inlineStr">
         <is>
@@ -3213,7 +3211,7 @@
     </row>
     <row r="158">
       <c r="A158" t="n">
-        <v>2015</v>
+        <v>2016</v>
       </c>
       <c r="B158" t="inlineStr">
         <is>
@@ -3229,7 +3227,7 @@
     </row>
     <row r="159">
       <c r="A159" t="n">
-        <v>2015</v>
+        <v>2016</v>
       </c>
       <c r="B159" t="inlineStr">
         <is>
@@ -3242,12 +3240,12 @@
         </is>
       </c>
       <c r="D159" t="n">
-        <v>3.782785903217757</v>
+        <v>3.213417401992361</v>
       </c>
     </row>
     <row r="160">
       <c r="A160" t="n">
-        <v>2015</v>
+        <v>2016</v>
       </c>
       <c r="B160" t="inlineStr">
         <is>
@@ -3260,12 +3258,12 @@
         </is>
       </c>
       <c r="D160" t="n">
-        <v>6.190040052113738</v>
+        <v>9.02635103564181</v>
       </c>
     </row>
     <row r="161">
       <c r="A161" t="n">
-        <v>2015</v>
+        <v>2016</v>
       </c>
       <c r="B161" t="inlineStr">
         <is>
@@ -3278,12 +3276,12 @@
         </is>
       </c>
       <c r="D161" t="n">
-        <v>3.006414629485785</v>
+        <v>6.502046417978439</v>
       </c>
     </row>
     <row r="162">
       <c r="A162" t="n">
-        <v>2015</v>
+        <v>2016</v>
       </c>
       <c r="B162" t="inlineStr">
         <is>
@@ -3296,12 +3294,12 @@
         </is>
       </c>
       <c r="D162" t="n">
-        <v>10.15459515308361</v>
+        <v>7.197104583575022</v>
       </c>
     </row>
     <row r="163">
       <c r="A163" t="n">
-        <v>2015</v>
+        <v>2016</v>
       </c>
       <c r="B163" t="inlineStr">
         <is>
@@ -3317,7 +3315,7 @@
     </row>
     <row r="164">
       <c r="A164" t="n">
-        <v>2014</v>
+        <v>2015</v>
       </c>
       <c r="B164" t="inlineStr">
         <is>
@@ -3330,12 +3328,12 @@
         </is>
       </c>
       <c r="D164" t="n">
-        <v>4.263892728413966</v>
+        <v>3.608224122433871</v>
       </c>
     </row>
     <row r="165">
       <c r="A165" t="n">
-        <v>2014</v>
+        <v>2015</v>
       </c>
       <c r="B165" t="inlineStr">
         <is>
@@ -3348,12 +3346,12 @@
         </is>
       </c>
       <c r="D165" t="n">
-        <v>2.82940814870345</v>
+        <v>2.680872271629325</v>
       </c>
     </row>
     <row r="166">
       <c r="A166" t="n">
-        <v>2014</v>
+        <v>2015</v>
       </c>
       <c r="B166" t="inlineStr">
         <is>
@@ -3366,12 +3364,12 @@
         </is>
       </c>
       <c r="D166" t="n">
-        <v>18.23976727156438</v>
+        <v>16.97852352137798</v>
       </c>
     </row>
     <row r="167">
       <c r="A167" t="n">
-        <v>2014</v>
+        <v>2015</v>
       </c>
       <c r="B167" t="inlineStr">
         <is>
@@ -3384,12 +3382,12 @@
         </is>
       </c>
       <c r="D167" t="n">
-        <v>3.489434251944785</v>
+        <v>4.124659017361028</v>
       </c>
     </row>
     <row r="168">
       <c r="A168" t="n">
-        <v>2014</v>
+        <v>2015</v>
       </c>
       <c r="B168" t="inlineStr">
         <is>
@@ -3402,12 +3400,12 @@
         </is>
       </c>
       <c r="D168" t="n">
-        <v>15.59351447246445</v>
+        <v>14.327447432411</v>
       </c>
     </row>
     <row r="169">
       <c r="A169" t="n">
-        <v>2014</v>
+        <v>2015</v>
       </c>
       <c r="B169" t="inlineStr">
         <is>
@@ -3420,12 +3418,12 @@
         </is>
       </c>
       <c r="D169" t="n">
-        <v>1.847642847771288</v>
+        <v>1.827521793504338</v>
       </c>
     </row>
     <row r="170">
       <c r="A170" t="n">
-        <v>2014</v>
+        <v>2015</v>
       </c>
       <c r="B170" t="inlineStr">
         <is>
@@ -3438,12 +3436,12 @@
         </is>
       </c>
       <c r="D170" t="n">
-        <v>5.71110785314063</v>
+        <v>3.179374657850911</v>
       </c>
     </row>
     <row r="171">
       <c r="A171" t="n">
-        <v>2014</v>
+        <v>2015</v>
       </c>
       <c r="B171" t="inlineStr">
         <is>
@@ -3456,12 +3454,12 @@
         </is>
       </c>
       <c r="D171" t="n">
-        <v>3.17243267825812</v>
+        <v>2.975058227776424</v>
       </c>
     </row>
     <row r="172">
       <c r="A172" t="n">
-        <v>2014</v>
+        <v>2015</v>
       </c>
       <c r="B172" t="inlineStr">
         <is>
@@ -3474,12 +3472,12 @@
         </is>
       </c>
       <c r="D172" t="n">
-        <v>18.55680894876884</v>
+        <v>17.13821473807781</v>
       </c>
     </row>
     <row r="173">
       <c r="A173" t="n">
-        <v>2014</v>
+        <v>2015</v>
       </c>
       <c r="B173" t="inlineStr">
         <is>
@@ -3492,12 +3490,12 @@
         </is>
       </c>
       <c r="D173" t="n">
-        <v>3.389691912811176</v>
+        <v>3.710905487888414</v>
       </c>
     </row>
     <row r="174">
       <c r="A174" t="n">
-        <v>2014</v>
+        <v>2015</v>
       </c>
       <c r="B174" t="inlineStr">
         <is>
@@ -3510,12 +3508,12 @@
         </is>
       </c>
       <c r="D174" t="n">
-        <v>5.476060589517408</v>
+        <v>5.20576513231557</v>
       </c>
     </row>
     <row r="175">
       <c r="A175" t="n">
-        <v>2014</v>
+        <v>2015</v>
       </c>
       <c r="B175" t="inlineStr">
         <is>
@@ -3531,7 +3529,7 @@
     </row>
     <row r="176">
       <c r="A176" t="n">
-        <v>2014</v>
+        <v>2015</v>
       </c>
       <c r="B176" t="inlineStr">
         <is>
@@ -3543,13 +3541,11 @@
           <t>Algodão herbáceo (em caroço)</t>
         </is>
       </c>
-      <c r="D176" t="n">
-        <v>3.563883545163723</v>
-      </c>
+      <c r="D176" t="inlineStr"/>
     </row>
     <row r="177">
       <c r="A177" t="n">
-        <v>2014</v>
+        <v>2015</v>
       </c>
       <c r="B177" t="inlineStr">
         <is>
@@ -3562,12 +3558,12 @@
         </is>
       </c>
       <c r="D177" t="n">
-        <v>3.651375647044255</v>
+        <v>3.815150305579896</v>
       </c>
     </row>
     <row r="178">
       <c r="A178" t="n">
-        <v>2014</v>
+        <v>2015</v>
       </c>
       <c r="B178" t="inlineStr">
         <is>
@@ -3580,12 +3576,12 @@
         </is>
       </c>
       <c r="D178" t="n">
-        <v>6.714615755455325</v>
+        <v>6.243000212167723</v>
       </c>
     </row>
     <row r="179">
       <c r="A179" t="n">
-        <v>2014</v>
+        <v>2015</v>
       </c>
       <c r="B179" t="inlineStr">
         <is>
@@ -3598,12 +3594,12 @@
         </is>
       </c>
       <c r="D179" t="n">
-        <v>3.277108205323585</v>
+        <v>3.03213662782921</v>
       </c>
     </row>
     <row r="180">
       <c r="A180" t="n">
-        <v>2014</v>
+        <v>2015</v>
       </c>
       <c r="B180" t="inlineStr">
         <is>
@@ -3616,12 +3612,12 @@
         </is>
       </c>
       <c r="D180" t="n">
-        <v>10.67712439259904</v>
+        <v>10.2414748792345</v>
       </c>
     </row>
     <row r="181">
       <c r="A181" t="n">
-        <v>2014</v>
+        <v>2015</v>
       </c>
       <c r="B181" t="inlineStr">
         <is>
@@ -3637,7 +3633,7 @@
     </row>
     <row r="182">
       <c r="A182" t="n">
-        <v>2013</v>
+        <v>2014</v>
       </c>
       <c r="B182" t="inlineStr">
         <is>
@@ -3650,12 +3646,12 @@
         </is>
       </c>
       <c r="D182" t="n">
-        <v>4.706037026945893</v>
+        <v>4.300373339112553</v>
       </c>
     </row>
     <row r="183">
       <c r="A183" t="n">
-        <v>2013</v>
+        <v>2014</v>
       </c>
       <c r="B183" t="inlineStr">
         <is>
@@ -3668,12 +3664,12 @@
         </is>
       </c>
       <c r="D183" t="n">
-        <v>2.859091108542665</v>
+        <v>2.853615731716134</v>
       </c>
     </row>
     <row r="184">
       <c r="A184" t="n">
-        <v>2013</v>
+        <v>2014</v>
       </c>
       <c r="B184" t="inlineStr">
         <is>
@@ -3686,12 +3682,12 @@
         </is>
       </c>
       <c r="D184" t="n">
-        <v>14.41783652768557</v>
+        <v>18.39582134971523</v>
       </c>
     </row>
     <row r="185">
       <c r="A185" t="n">
-        <v>2013</v>
+        <v>2014</v>
       </c>
       <c r="B185" t="inlineStr">
         <is>
@@ -3704,12 +3700,12 @@
         </is>
       </c>
       <c r="D185" t="n">
-        <v>5.576946546061986</v>
+        <v>3.519288823954823</v>
       </c>
     </row>
     <row r="186">
       <c r="A186" t="n">
-        <v>2013</v>
+        <v>2014</v>
       </c>
       <c r="B186" t="inlineStr">
         <is>
@@ -3722,12 +3718,12 @@
         </is>
       </c>
       <c r="D186" t="n">
-        <v>15.37561358636726</v>
+        <v>15.72692799084448</v>
       </c>
     </row>
     <row r="187">
       <c r="A187" t="n">
-        <v>2013</v>
+        <v>2014</v>
       </c>
       <c r="B187" t="inlineStr">
         <is>
@@ -3740,12 +3736,12 @@
         </is>
       </c>
       <c r="D187" t="n">
-        <v>1.993925571690851</v>
+        <v>1.863450735945962</v>
       </c>
     </row>
     <row r="188">
       <c r="A188" t="n">
-        <v>2013</v>
+        <v>2014</v>
       </c>
       <c r="B188" t="inlineStr">
         <is>
@@ -3758,12 +3754,12 @@
         </is>
       </c>
       <c r="D188" t="n">
-        <v>5.76501596105934</v>
+        <v>5.759970410319823</v>
       </c>
     </row>
     <row r="189">
       <c r="A189" t="n">
-        <v>2013</v>
+        <v>2014</v>
       </c>
       <c r="B189" t="inlineStr">
         <is>
@@ -3776,12 +3772,12 @@
         </is>
       </c>
       <c r="D189" t="n">
-        <v>2.876117789397693</v>
+        <v>3.199575078143508</v>
       </c>
     </row>
     <row r="190">
       <c r="A190" t="n">
-        <v>2013</v>
+        <v>2014</v>
       </c>
       <c r="B190" t="inlineStr">
         <is>
@@ -3794,12 +3790,12 @@
         </is>
       </c>
       <c r="D190" t="n">
-        <v>14.58564209131379</v>
+        <v>18.71557554215823</v>
       </c>
     </row>
     <row r="191">
       <c r="A191" t="n">
-        <v>2013</v>
+        <v>2014</v>
       </c>
       <c r="B191" t="inlineStr">
         <is>
@@ -3812,12 +3808,12 @@
         </is>
       </c>
       <c r="D191" t="n">
-        <v>4.966054825700033</v>
+        <v>3.418693118736309</v>
       </c>
     </row>
     <row r="192">
       <c r="A192" t="n">
-        <v>2013</v>
+        <v>2014</v>
       </c>
       <c r="B192" t="inlineStr">
         <is>
@@ -3830,12 +3826,12 @@
         </is>
       </c>
       <c r="D192" t="n">
-        <v>5.612697757886663</v>
+        <v>5.52291215151774</v>
       </c>
     </row>
     <row r="193">
       <c r="A193" t="n">
-        <v>2013</v>
+        <v>2014</v>
       </c>
       <c r="B193" t="inlineStr">
         <is>
@@ -3847,13 +3843,11 @@
           <t>Girassol (em grão)</t>
         </is>
       </c>
-      <c r="D193" t="n">
-        <v>2.184627967966895</v>
-      </c>
+      <c r="D193" t="inlineStr"/>
     </row>
     <row r="194">
       <c r="A194" t="n">
-        <v>2013</v>
+        <v>2014</v>
       </c>
       <c r="B194" t="inlineStr">
         <is>
@@ -3866,12 +3860,12 @@
         </is>
       </c>
       <c r="D194" t="n">
-        <v>5.105130619880534</v>
+        <v>3.594375083405253</v>
       </c>
     </row>
     <row r="195">
       <c r="A195" t="n">
-        <v>2013</v>
+        <v>2014</v>
       </c>
       <c r="B195" t="inlineStr">
         <is>
@@ -3884,12 +3878,12 @@
         </is>
       </c>
       <c r="D195" t="n">
-        <v>2.80224118929094</v>
+        <v>3.682615741947784</v>
       </c>
     </row>
     <row r="196">
       <c r="A196" t="n">
-        <v>2013</v>
+        <v>2014</v>
       </c>
       <c r="B196" t="inlineStr">
         <is>
@@ -3902,12 +3896,12 @@
         </is>
       </c>
       <c r="D196" t="n">
-        <v>7.339430129013834</v>
+        <v>6.772064030767936</v>
       </c>
     </row>
     <row r="197">
       <c r="A197" t="n">
-        <v>2013</v>
+        <v>2014</v>
       </c>
       <c r="B197" t="inlineStr">
         <is>
@@ -3920,12 +3914,12 @@
         </is>
       </c>
       <c r="D197" t="n">
-        <v>3.899575772690568</v>
+        <v>3.305146178197266</v>
       </c>
     </row>
     <row r="198">
       <c r="A198" t="n">
-        <v>2013</v>
+        <v>2014</v>
       </c>
       <c r="B198" t="inlineStr">
         <is>
@@ -3938,12 +3932,12 @@
         </is>
       </c>
       <c r="D198" t="n">
-        <v>10.67497531596714</v>
+        <v>10.76847472506664</v>
       </c>
     </row>
     <row r="199">
       <c r="A199" t="n">
-        <v>2013</v>
+        <v>2014</v>
       </c>
       <c r="B199" t="inlineStr">
         <is>
@@ -3955,13 +3949,11 @@
           <t>Girassol (em grão)</t>
         </is>
       </c>
-      <c r="D199" t="n">
-        <v>2.32260447120691</v>
-      </c>
+      <c r="D199" t="inlineStr"/>
     </row>
     <row r="200">
       <c r="A200" t="n">
-        <v>2012</v>
+        <v>2013</v>
       </c>
       <c r="B200" t="inlineStr">
         <is>
@@ -3974,12 +3966,12 @@
         </is>
       </c>
       <c r="D200" t="n">
-        <v>4.027692384144687</v>
+        <v>4.746300494075144</v>
       </c>
     </row>
     <row r="201">
       <c r="A201" t="n">
-        <v>2012</v>
+        <v>2013</v>
       </c>
       <c r="B201" t="inlineStr">
         <is>
@@ -3992,12 +3984,12 @@
         </is>
       </c>
       <c r="D201" t="n">
-        <v>3.23102572558175</v>
+        <v>2.883552650219708</v>
       </c>
     </row>
     <row r="202">
       <c r="A202" t="n">
-        <v>2012</v>
+        <v>2013</v>
       </c>
       <c r="B202" t="inlineStr">
         <is>
@@ -4010,12 +4002,12 @@
         </is>
       </c>
       <c r="D202" t="n">
-        <v>9.643466743476065</v>
+        <v>14.54119129174363</v>
       </c>
     </row>
     <row r="203">
       <c r="A203" t="n">
-        <v>2012</v>
+        <v>2013</v>
       </c>
       <c r="B203" t="inlineStr">
         <is>
@@ -4028,12 +4020,12 @@
         </is>
       </c>
       <c r="D203" t="n">
-        <v>5.472577304854682</v>
+        <v>5.62466125860106</v>
       </c>
     </row>
     <row r="204">
       <c r="A204" t="n">
-        <v>2012</v>
+        <v>2013</v>
       </c>
       <c r="B204" t="inlineStr">
         <is>
@@ -4046,12 +4038,12 @@
         </is>
       </c>
       <c r="D204" t="n">
-        <v>13.96264830028203</v>
+        <v>15.50716280892587</v>
       </c>
     </row>
     <row r="205">
       <c r="A205" t="n">
-        <v>2012</v>
+        <v>2013</v>
       </c>
       <c r="B205" t="inlineStr">
         <is>
@@ -4064,12 +4056,12 @@
         </is>
       </c>
       <c r="D205" t="n">
-        <v>1.785244485661448</v>
+        <v>2.010985011779032</v>
       </c>
     </row>
     <row r="206">
       <c r="A206" t="n">
-        <v>2012</v>
+        <v>2013</v>
       </c>
       <c r="B206" t="inlineStr">
         <is>
@@ -4082,12 +4074,12 @@
         </is>
       </c>
       <c r="D206" t="n">
-        <v>5.19022472025628</v>
+        <v>5.814339740136862</v>
       </c>
     </row>
     <row r="207">
       <c r="A207" t="n">
-        <v>2012</v>
+        <v>2013</v>
       </c>
       <c r="B207" t="inlineStr">
         <is>
@@ -4100,12 +4092,12 @@
         </is>
       </c>
       <c r="D207" t="n">
-        <v>2.796310235799212</v>
+        <v>2.900725006342695</v>
       </c>
     </row>
     <row r="208">
       <c r="A208" t="n">
-        <v>2012</v>
+        <v>2013</v>
       </c>
       <c r="B208" t="inlineStr">
         <is>
@@ -4118,12 +4110,12 @@
         </is>
       </c>
       <c r="D208" t="n">
-        <v>10.18835216590933</v>
+        <v>14.71043255036459</v>
       </c>
     </row>
     <row r="209">
       <c r="A209" t="n">
-        <v>2012</v>
+        <v>2013</v>
       </c>
       <c r="B209" t="inlineStr">
         <is>
@@ -4136,12 +4128,12 @@
         </is>
       </c>
       <c r="D209" t="n">
-        <v>6.584751915605422</v>
+        <v>5.008542928554251</v>
       </c>
     </row>
     <row r="210">
       <c r="A210" t="n">
-        <v>2012</v>
+        <v>2013</v>
       </c>
       <c r="B210" t="inlineStr">
         <is>
@@ -4154,12 +4146,12 @@
         </is>
       </c>
       <c r="D210" t="n">
-        <v>6.785643714434526</v>
+        <v>5.66071834726731</v>
       </c>
     </row>
     <row r="211">
       <c r="A211" t="n">
-        <v>2012</v>
+        <v>2013</v>
       </c>
       <c r="B211" t="inlineStr">
         <is>
@@ -4172,12 +4164,12 @@
         </is>
       </c>
       <c r="D211" t="n">
-        <v>3.151056103745133</v>
+        <v>2.203319001606077</v>
       </c>
     </row>
     <row r="212">
       <c r="A212" t="n">
-        <v>2012</v>
+        <v>2013</v>
       </c>
       <c r="B212" t="inlineStr">
         <is>
@@ -4190,12 +4182,12 @@
         </is>
       </c>
       <c r="D212" t="n">
-        <v>4.636620571590656</v>
+        <v>5.148808614279464</v>
       </c>
     </row>
     <row r="213">
       <c r="A213" t="n">
-        <v>2012</v>
+        <v>2013</v>
       </c>
       <c r="B213" t="inlineStr">
         <is>
@@ -4208,12 +4200,12 @@
         </is>
       </c>
       <c r="D213" t="n">
-        <v>3.569528076910588</v>
+        <v>2.82621633979809</v>
       </c>
     </row>
     <row r="214">
       <c r="A214" t="n">
-        <v>2012</v>
+        <v>2013</v>
       </c>
       <c r="B214" t="inlineStr">
         <is>
@@ -4226,12 +4218,12 @@
         </is>
       </c>
       <c r="D214" t="n">
-        <v>6.532793517848456</v>
+        <v>7.402224132132583</v>
       </c>
     </row>
     <row r="215">
       <c r="A215" t="n">
-        <v>2012</v>
+        <v>2013</v>
       </c>
       <c r="B215" t="inlineStr">
         <is>
@@ -4244,12 +4236,12 @@
         </is>
       </c>
       <c r="D215" t="n">
-        <v>6.423806523289189</v>
+        <v>3.932939394787618</v>
       </c>
     </row>
     <row r="216">
       <c r="A216" t="n">
-        <v>2012</v>
+        <v>2013</v>
       </c>
       <c r="B216" t="inlineStr">
         <is>
@@ -4262,12 +4254,12 @@
         </is>
       </c>
       <c r="D216" t="n">
-        <v>13.52715412704404</v>
+        <v>10.76630726156786</v>
       </c>
     </row>
     <row r="217">
       <c r="A217" t="n">
-        <v>2012</v>
+        <v>2013</v>
       </c>
       <c r="B217" t="inlineStr">
         <is>
@@ -4280,12 +4272,12 @@
         </is>
       </c>
       <c r="D217" t="n">
-        <v>3.204971263274909</v>
+        <v>2.342475991181197</v>
       </c>
     </row>
     <row r="218">
       <c r="A218" t="n">
-        <v>2011</v>
+        <v>2012</v>
       </c>
       <c r="B218" t="inlineStr">
         <is>
@@ -4298,12 +4290,12 @@
         </is>
       </c>
       <c r="D218" t="n">
-        <v>3.738857554245368</v>
+        <v>4.062152134245927</v>
       </c>
     </row>
     <row r="219">
       <c r="A219" t="n">
-        <v>2011</v>
+        <v>2012</v>
       </c>
       <c r="B219" t="inlineStr">
         <is>
@@ -4316,12 +4308,12 @@
         </is>
       </c>
       <c r="D219" t="n">
-        <v>3.428479890533679</v>
+        <v>3.258669430327557</v>
       </c>
     </row>
     <row r="220">
       <c r="A220" t="n">
-        <v>2011</v>
+        <v>2012</v>
       </c>
       <c r="B220" t="inlineStr">
         <is>
@@ -4334,12 +4326,12 @@
         </is>
       </c>
       <c r="D220" t="n">
-        <v>6.297960497717852</v>
+        <v>9.725973405454026</v>
       </c>
     </row>
     <row r="221">
       <c r="A221" t="n">
-        <v>2011</v>
+        <v>2012</v>
       </c>
       <c r="B221" t="inlineStr">
         <is>
@@ -4352,12 +4344,12 @@
         </is>
       </c>
       <c r="D221" t="n">
-        <v>3.904380017515936</v>
+        <v>5.519399064897082</v>
       </c>
     </row>
     <row r="222">
       <c r="A222" t="n">
-        <v>2011</v>
+        <v>2012</v>
       </c>
       <c r="B222" t="inlineStr">
         <is>
@@ -4370,12 +4362,12 @@
         </is>
       </c>
       <c r="D222" t="n">
-        <v>13.14365473236858</v>
+        <v>14.08210860789473</v>
       </c>
     </row>
     <row r="223">
       <c r="A223" t="n">
-        <v>2011</v>
+        <v>2012</v>
       </c>
       <c r="B223" t="inlineStr">
         <is>
@@ -4388,12 +4380,12 @@
         </is>
       </c>
       <c r="D223" t="n">
-        <v>1.711562276789673</v>
+        <v>1.800518511822853</v>
       </c>
     </row>
     <row r="224">
       <c r="A224" t="n">
-        <v>2011</v>
+        <v>2012</v>
       </c>
       <c r="B224" t="inlineStr">
         <is>
@@ -4406,12 +4398,12 @@
         </is>
       </c>
       <c r="D224" t="n">
-        <v>3.482490238304287</v>
+        <v>5.234630754722415</v>
       </c>
     </row>
     <row r="225">
       <c r="A225" t="n">
-        <v>2011</v>
+        <v>2012</v>
       </c>
       <c r="B225" t="inlineStr">
         <is>
@@ -4424,12 +4416,12 @@
         </is>
       </c>
       <c r="D225" t="n">
-        <v>3.695903986097824</v>
+        <v>2.820234642814633</v>
       </c>
     </row>
     <row r="226">
       <c r="A226" t="n">
-        <v>2011</v>
+        <v>2012</v>
       </c>
       <c r="B226" t="inlineStr">
         <is>
@@ -4442,12 +4434,12 @@
         </is>
       </c>
       <c r="D226" t="n">
-        <v>6.402405662728388</v>
+        <v>10.27552070712235</v>
       </c>
     </row>
     <row r="227">
       <c r="A227" t="n">
-        <v>2011</v>
+        <v>2012</v>
       </c>
       <c r="B227" t="inlineStr">
         <is>
@@ -4460,12 +4452,12 @@
         </is>
       </c>
       <c r="D227" t="n">
-        <v>4.47052796791925</v>
+        <v>6.641089114142153</v>
       </c>
     </row>
     <row r="228">
       <c r="A228" t="n">
-        <v>2011</v>
+        <v>2012</v>
       </c>
       <c r="B228" t="inlineStr">
         <is>
@@ -4478,12 +4470,12 @@
         </is>
       </c>
       <c r="D228" t="n">
-        <v>7.940955372694224</v>
+        <v>6.843699684050273</v>
       </c>
     </row>
     <row r="229">
       <c r="A229" t="n">
-        <v>2011</v>
+        <v>2012</v>
       </c>
       <c r="B229" t="inlineStr">
         <is>
@@ -4496,12 +4488,12 @@
         </is>
       </c>
       <c r="D229" t="n">
-        <v>1.818052799166115</v>
+        <v>3.178015611953233</v>
       </c>
     </row>
     <row r="230">
       <c r="A230" t="n">
-        <v>2011</v>
+        <v>2012</v>
       </c>
       <c r="B230" t="inlineStr">
         <is>
@@ -4513,11 +4505,13 @@
           <t>Algodão herbáceo (em caroço)</t>
         </is>
       </c>
-      <c r="D230" t="inlineStr"/>
+      <c r="D230" t="n">
+        <v>4.676290131967279</v>
+      </c>
     </row>
     <row r="231">
       <c r="A231" t="n">
-        <v>2011</v>
+        <v>2012</v>
       </c>
       <c r="B231" t="inlineStr">
         <is>
@@ -4530,12 +4524,12 @@
         </is>
       </c>
       <c r="D231" t="n">
-        <v>3.66877925585044</v>
+        <v>3.600067908103736</v>
       </c>
     </row>
     <row r="232">
       <c r="A232" t="n">
-        <v>2011</v>
+        <v>2012</v>
       </c>
       <c r="B232" t="inlineStr">
         <is>
@@ -4548,12 +4542,12 @@
         </is>
       </c>
       <c r="D232" t="n">
-        <v>5.291293611966367</v>
+        <v>6.588686175632915</v>
       </c>
     </row>
     <row r="233">
       <c r="A233" t="n">
-        <v>2011</v>
+        <v>2012</v>
       </c>
       <c r="B233" t="inlineStr">
         <is>
@@ -4566,12 +4560,12 @@
         </is>
       </c>
       <c r="D233" t="n">
-        <v>4.937640900915911</v>
+        <v>6.478766720438973</v>
       </c>
     </row>
     <row r="234">
       <c r="A234" t="n">
-        <v>2011</v>
+        <v>2012</v>
       </c>
       <c r="B234" t="inlineStr">
         <is>
@@ -4584,12 +4578,12 @@
         </is>
       </c>
       <c r="D234" t="n">
-        <v>11.7228745185047</v>
+        <v>13.64288847473999</v>
       </c>
     </row>
     <row r="235">
       <c r="A235" t="n">
-        <v>2011</v>
+        <v>2012</v>
       </c>
       <c r="B235" t="inlineStr">
         <is>
@@ -4602,12 +4596,12 @@
         </is>
       </c>
       <c r="D235" t="n">
-        <v>1.811020424724434</v>
+        <v>3.232392053712849</v>
       </c>
     </row>
     <row r="236">
       <c r="A236" t="n">
-        <v>2010</v>
+        <v>2011</v>
       </c>
       <c r="B236" t="inlineStr">
         <is>
@@ -4620,12 +4614,12 @@
         </is>
       </c>
       <c r="D236" t="n">
-        <v>3.991872658587917</v>
+        <v>3.770846118588222</v>
       </c>
     </row>
     <row r="237">
       <c r="A237" t="n">
-        <v>2010</v>
+        <v>2011</v>
       </c>
       <c r="B237" t="inlineStr">
         <is>
@@ -4638,12 +4632,12 @@
         </is>
       </c>
       <c r="D237" t="n">
-        <v>3.123868957765076</v>
+        <v>3.457812954975246</v>
       </c>
     </row>
     <row r="238">
       <c r="A238" t="n">
-        <v>2010</v>
+        <v>2011</v>
       </c>
       <c r="B238" t="inlineStr">
         <is>
@@ -4656,12 +4650,12 @@
         </is>
       </c>
       <c r="D238" t="n">
-        <v>6.398258081534381</v>
+        <v>6.351843993327694</v>
       </c>
     </row>
     <row r="239">
       <c r="A239" t="n">
-        <v>2010</v>
+        <v>2011</v>
       </c>
       <c r="B239" t="inlineStr">
         <is>
@@ -4674,12 +4668,12 @@
         </is>
       </c>
       <c r="D239" t="n">
-        <v>4.463139215505409</v>
+        <v>3.937784743317124</v>
       </c>
     </row>
     <row r="240">
       <c r="A240" t="n">
-        <v>2010</v>
+        <v>2011</v>
       </c>
       <c r="B240" t="inlineStr">
         <is>
@@ -4692,12 +4686,12 @@
         </is>
       </c>
       <c r="D240" t="n">
-        <v>16.34691638201538</v>
+        <v>13.25610797216351</v>
       </c>
     </row>
     <row r="241">
       <c r="A241" t="n">
-        <v>2010</v>
+        <v>2011</v>
       </c>
       <c r="B241" t="inlineStr">
         <is>
@@ -4710,12 +4704,12 @@
         </is>
       </c>
       <c r="D241" t="n">
-        <v>1.676216078428888</v>
+        <v>1.726205899667395</v>
       </c>
     </row>
     <row r="242">
       <c r="A242" t="n">
-        <v>2010</v>
+        <v>2011</v>
       </c>
       <c r="B242" t="inlineStr">
         <is>
@@ -4728,12 +4722,12 @@
         </is>
       </c>
       <c r="D242" t="n">
-        <v>2.816482824973679</v>
+        <v>3.512285399378253</v>
       </c>
     </row>
     <row r="243">
       <c r="A243" t="n">
-        <v>2010</v>
+        <v>2011</v>
       </c>
       <c r="B243" t="inlineStr">
         <is>
@@ -4746,12 +4740,12 @@
         </is>
       </c>
       <c r="D243" t="n">
-        <v>3.040533935270127</v>
+        <v>3.727525052359109</v>
       </c>
     </row>
     <row r="244">
       <c r="A244" t="n">
-        <v>2010</v>
+        <v>2011</v>
       </c>
       <c r="B244" t="inlineStr">
         <is>
@@ -4764,12 +4758,12 @@
         </is>
       </c>
       <c r="D244" t="n">
-        <v>6.704234218601029</v>
+        <v>6.457182760416607</v>
       </c>
     </row>
     <row r="245">
       <c r="A245" t="n">
-        <v>2010</v>
+        <v>2011</v>
       </c>
       <c r="B245" t="inlineStr">
         <is>
@@ -4782,12 +4776,12 @@
         </is>
       </c>
       <c r="D245" t="n">
-        <v>5.309837365048746</v>
+        <v>4.508776488884146</v>
       </c>
     </row>
     <row r="246">
       <c r="A246" t="n">
-        <v>2010</v>
+        <v>2011</v>
       </c>
       <c r="B246" t="inlineStr">
         <is>
@@ -4800,12 +4794,12 @@
         </is>
       </c>
       <c r="D246" t="n">
-        <v>8.827862793819687</v>
+        <v>8.008895848681261</v>
       </c>
     </row>
     <row r="247">
       <c r="A247" t="n">
-        <v>2010</v>
+        <v>2011</v>
       </c>
       <c r="B247" t="inlineStr">
         <is>
@@ -4818,12 +4812,12 @@
         </is>
       </c>
       <c r="D247" t="n">
-        <v>2.249018044051433</v>
+        <v>1.833607523597591</v>
       </c>
     </row>
     <row r="248">
       <c r="A248" t="n">
-        <v>2010</v>
+        <v>2011</v>
       </c>
       <c r="B248" t="inlineStr">
         <is>
@@ -4839,7 +4833,7 @@
     </row>
     <row r="249">
       <c r="A249" t="n">
-        <v>2010</v>
+        <v>2011</v>
       </c>
       <c r="B249" t="inlineStr">
         <is>
@@ -4852,12 +4846,12 @@
         </is>
       </c>
       <c r="D249" t="n">
-        <v>4.544406651018542</v>
+        <v>3.700168250906494</v>
       </c>
     </row>
     <row r="250">
       <c r="A250" t="n">
-        <v>2010</v>
+        <v>2011</v>
       </c>
       <c r="B250" t="inlineStr">
         <is>
@@ -4870,12 +4864,12 @@
         </is>
       </c>
       <c r="D250" t="n">
-        <v>5.669102826207875</v>
+        <v>5.336564362110652</v>
       </c>
     </row>
     <row r="251">
       <c r="A251" t="n">
-        <v>2010</v>
+        <v>2011</v>
       </c>
       <c r="B251" t="inlineStr">
         <is>
@@ -4888,12 +4882,12 @@
         </is>
       </c>
       <c r="D251" t="n">
-        <v>5.595098262995363</v>
+        <v>4.97988590259604</v>
       </c>
     </row>
     <row r="252">
       <c r="A252" t="n">
-        <v>2010</v>
+        <v>2011</v>
       </c>
       <c r="B252" t="inlineStr">
         <is>
@@ -4906,25 +4900,347 @@
         </is>
       </c>
       <c r="D252" t="n">
-        <v>11.44157177533313</v>
+        <v>11.82317198113271</v>
       </c>
     </row>
     <row r="253">
       <c r="A253" t="n">
+        <v>2011</v>
+      </c>
+      <c r="B253" t="inlineStr">
+        <is>
+          <t>Sergipe</t>
+        </is>
+      </c>
+      <c r="C253" t="inlineStr">
+        <is>
+          <t>Girassol (em grão)</t>
+        </is>
+      </c>
+      <c r="D253" t="n">
+        <v>1.826514982230841</v>
+      </c>
+    </row>
+    <row r="254">
+      <c r="A254" t="n">
         <v>2010</v>
       </c>
-      <c r="B253" t="inlineStr">
-        <is>
-          <t>Sergipe</t>
-        </is>
-      </c>
-      <c r="C253" t="inlineStr">
+      <c r="B254" t="inlineStr">
+        <is>
+          <t>Brasil</t>
+        </is>
+      </c>
+      <c r="C254" t="inlineStr">
+        <is>
+          <t>Algodão herbáceo (em caroço)</t>
+        </is>
+      </c>
+      <c r="D254" t="n">
+        <v>4.026025945664267</v>
+      </c>
+    </row>
+    <row r="255">
+      <c r="A255" t="n">
+        <v>2010</v>
+      </c>
+      <c r="B255" t="inlineStr">
+        <is>
+          <t>Brasil</t>
+        </is>
+      </c>
+      <c r="C255" t="inlineStr">
+        <is>
+          <t>Amendoim (em casca)</t>
+        </is>
+      </c>
+      <c r="D255" t="n">
+        <v>3.150595860757314</v>
+      </c>
+    </row>
+    <row r="256">
+      <c r="A256" t="n">
+        <v>2010</v>
+      </c>
+      <c r="B256" t="inlineStr">
+        <is>
+          <t>Brasil</t>
+        </is>
+      </c>
+      <c r="C256" t="inlineStr">
+        <is>
+          <t>Fava (em grão)</t>
+        </is>
+      </c>
+      <c r="D256" t="n">
+        <v>6.452999693739144</v>
+      </c>
+    </row>
+    <row r="257">
+      <c r="A257" t="n">
+        <v>2010</v>
+      </c>
+      <c r="B257" t="inlineStr">
+        <is>
+          <t>Brasil</t>
+        </is>
+      </c>
+      <c r="C257" t="inlineStr">
+        <is>
+          <t>Feijão (em grão)</t>
+        </is>
+      </c>
+      <c r="D257" t="n">
+        <v>4.501324520480241</v>
+      </c>
+    </row>
+    <row r="258">
+      <c r="A258" t="n">
+        <v>2010</v>
+      </c>
+      <c r="B258" t="inlineStr">
+        <is>
+          <t>Brasil</t>
+        </is>
+      </c>
+      <c r="C258" t="inlineStr">
+        <is>
+          <t>Fumo (em folha)</t>
+        </is>
+      </c>
+      <c r="D258" t="n">
+        <v>16.48677578529744</v>
+      </c>
+    </row>
+    <row r="259">
+      <c r="A259" t="n">
+        <v>2010</v>
+      </c>
+      <c r="B259" t="inlineStr">
+        <is>
+          <t>Brasil</t>
+        </is>
+      </c>
+      <c r="C259" t="inlineStr">
         <is>
           <t>Girassol (em grão)</t>
         </is>
       </c>
-      <c r="D253" t="n">
-        <v>2.164265145932948</v>
+      <c r="D259" t="n">
+        <v>1.690557289640978</v>
+      </c>
+    </row>
+    <row r="260">
+      <c r="A260" t="n">
+        <v>2010</v>
+      </c>
+      <c r="B260" t="inlineStr">
+        <is>
+          <t>Nordeste</t>
+        </is>
+      </c>
+      <c r="C260" t="inlineStr">
+        <is>
+          <t>Algodão herbáceo (em caroço)</t>
+        </is>
+      </c>
+      <c r="D260" t="n">
+        <v>2.84057982272234</v>
+      </c>
+    </row>
+    <row r="261">
+      <c r="A261" t="n">
+        <v>2010</v>
+      </c>
+      <c r="B261" t="inlineStr">
+        <is>
+          <t>Nordeste</t>
+        </is>
+      </c>
+      <c r="C261" t="inlineStr">
+        <is>
+          <t>Amendoim (em casca)</t>
+        </is>
+      </c>
+      <c r="D261" t="n">
+        <v>3.066547848347553</v>
+      </c>
+    </row>
+    <row r="262">
+      <c r="A262" t="n">
+        <v>2010</v>
+      </c>
+      <c r="B262" t="inlineStr">
+        <is>
+          <t>Nordeste</t>
+        </is>
+      </c>
+      <c r="C262" t="inlineStr">
+        <is>
+          <t>Fava (em grão)</t>
+        </is>
+      </c>
+      <c r="D262" t="n">
+        <v>6.761593672541117</v>
+      </c>
+    </row>
+    <row r="263">
+      <c r="A263" t="n">
+        <v>2010</v>
+      </c>
+      <c r="B263" t="inlineStr">
+        <is>
+          <t>Nordeste</t>
+        </is>
+      </c>
+      <c r="C263" t="inlineStr">
+        <is>
+          <t>Feijão (em grão)</t>
+        </is>
+      </c>
+      <c r="D263" t="n">
+        <v>5.355266770084272</v>
+      </c>
+    </row>
+    <row r="264">
+      <c r="A264" t="n">
+        <v>2010</v>
+      </c>
+      <c r="B264" t="inlineStr">
+        <is>
+          <t>Nordeste</t>
+        </is>
+      </c>
+      <c r="C264" t="inlineStr">
+        <is>
+          <t>Fumo (em folha)</t>
+        </is>
+      </c>
+      <c r="D264" t="n">
+        <v>8.903391388555622</v>
+      </c>
+    </row>
+    <row r="265">
+      <c r="A265" t="n">
+        <v>2010</v>
+      </c>
+      <c r="B265" t="inlineStr">
+        <is>
+          <t>Nordeste</t>
+        </is>
+      </c>
+      <c r="C265" t="inlineStr">
+        <is>
+          <t>Girassol (em grão)</t>
+        </is>
+      </c>
+      <c r="D265" t="n">
+        <v>2.2682599802222</v>
+      </c>
+    </row>
+    <row r="266">
+      <c r="A266" t="n">
+        <v>2010</v>
+      </c>
+      <c r="B266" t="inlineStr">
+        <is>
+          <t>Sergipe</t>
+        </is>
+      </c>
+      <c r="C266" t="inlineStr">
+        <is>
+          <t>Algodão herbáceo (em caroço)</t>
+        </is>
+      </c>
+      <c r="D266" t="inlineStr"/>
+    </row>
+    <row r="267">
+      <c r="A267" t="n">
+        <v>2010</v>
+      </c>
+      <c r="B267" t="inlineStr">
+        <is>
+          <t>Sergipe</t>
+        </is>
+      </c>
+      <c r="C267" t="inlineStr">
+        <is>
+          <t>Amendoim (em casca)</t>
+        </is>
+      </c>
+      <c r="D267" t="n">
+        <v>4.58328725624276</v>
+      </c>
+    </row>
+    <row r="268">
+      <c r="A268" t="n">
+        <v>2010</v>
+      </c>
+      <c r="B268" t="inlineStr">
+        <is>
+          <t>Sergipe</t>
+        </is>
+      </c>
+      <c r="C268" t="inlineStr">
+        <is>
+          <t>Fava (em grão)</t>
+        </is>
+      </c>
+      <c r="D268" t="n">
+        <v>5.717606000744839</v>
+      </c>
+    </row>
+    <row r="269">
+      <c r="A269" t="n">
+        <v>2010</v>
+      </c>
+      <c r="B269" t="inlineStr">
+        <is>
+          <t>Sergipe</t>
+        </is>
+      </c>
+      <c r="C269" t="inlineStr">
+        <is>
+          <t>Feijão (em grão)</t>
+        </is>
+      </c>
+      <c r="D269" t="n">
+        <v>5.64296827627982</v>
+      </c>
+    </row>
+    <row r="270">
+      <c r="A270" t="n">
+        <v>2010</v>
+      </c>
+      <c r="B270" t="inlineStr">
+        <is>
+          <t>Sergipe</t>
+        </is>
+      </c>
+      <c r="C270" t="inlineStr">
+        <is>
+          <t>Fumo (em folha)</t>
+        </is>
+      </c>
+      <c r="D270" t="n">
+        <v>11.539462494519</v>
+      </c>
+    </row>
+    <row r="271">
+      <c r="A271" t="n">
+        <v>2010</v>
+      </c>
+      <c r="B271" t="inlineStr">
+        <is>
+          <t>Sergipe</t>
+        </is>
+      </c>
+      <c r="C271" t="inlineStr">
+        <is>
+          <t>Girassol (em grão)</t>
+        </is>
+      </c>
+      <c r="D271" t="n">
+        <v>2.182781961262557</v>
       </c>
     </row>
   </sheetData>

--- a/Data/g2.5.xlsx
+++ b/Data/g2.5.xlsx
@@ -1790,7 +1790,7 @@
         </is>
       </c>
       <c r="D77" t="n">
-        <v>5.023700873051334</v>
+        <v>5.024023691132778</v>
       </c>
     </row>
     <row r="78">
